--- a/C++forhome/git push --set-upstream origin master.xlsx
+++ b/C++forhome/git push --set-upstream origin master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momo1\source\repos\C++forhome\C++forhome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87948484-43A2-493A-824A-9D7588DD7CAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5024D3DF-AA0A-457E-BD3A-5FEE81BD64B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="12720" xr2:uid="{460E688C-6889-40D6-B124-F48F323AF239}"/>
   </bookViews>
@@ -25,21 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Bubble</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Quick</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>n</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>linear</t>
+    <t>prog01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prog02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prog03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>milisec.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -72,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,15 +84,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CA95D0-43E9-45B0-973C-B1FFB77E8571}">
-  <dimension ref="B4:E11"/>
+  <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B3" sqref="B3:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -415,19 +437,26 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5">
@@ -495,6 +524,7 @@
       <c r="D9">
         <v>194</v>
       </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10">
@@ -506,6 +536,7 @@
       <c r="D10">
         <v>2214</v>
       </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11">
@@ -517,8 +548,12 @@
       <c r="D11">
         <v>24368</v>
       </c>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
